--- a/dtpu_configurations/only_integer32/50mhz/mxu_7x7/power.xlsx
+++ b/dtpu_configurations/only_integer32/50mhz/mxu_7x7/power.xlsx
@@ -127,7 +127,7 @@
     <col min="3" max="3" width="9.84375" customWidth="true"/>
     <col min="4" max="4" width="8.75" customWidth="true"/>
     <col min="5" max="5" width="8.75" customWidth="true"/>
-    <col min="6" max="6" width="10.3125" customWidth="true"/>
+    <col min="6" max="6" width="8.75" customWidth="true"/>
     <col min="7" max="7" width="8.75" customWidth="true"/>
     <col min="8" max="8" width="10.3125" customWidth="true"/>
     <col min="9" max="9" width="8.75" customWidth="true"/>
@@ -175,19 +175,19 @@
         <v>11</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>0.02105160802602768</v>
+        <v>0.030875299125909805</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>0.009174354374408722</v>
+        <v>0.011699790135025978</v>
       </c>
       <c r="D2" t="n" s="4">
-        <v>0.007034055422991514</v>
+        <v>0.008753973059356213</v>
       </c>
       <c r="E2" t="n" s="4">
-        <v>0.006463548634201288</v>
+        <v>0.006712187081575394</v>
       </c>
       <c r="F2" t="n" s="4">
-        <v>1.3914199371356517E-4</v>
+        <v>0.0020919207017868757</v>
       </c>
       <c r="G2" t="n" s="4">
         <v>0.0022334761451929808</v>
@@ -199,10 +199,10 @@
         <v>1.258823275566101</v>
       </c>
       <c r="J2" t="n" s="4">
-        <v>0.12690415978431702</v>
+        <v>0.12754927575588226</v>
       </c>
       <c r="K2" t="n" s="4">
-        <v>1.4328001737594604</v>
+        <v>1.4497157335281372</v>
       </c>
     </row>
   </sheetData>
